--- a/biology/Botanique/Fruticée/Fruticée.xlsx
+++ b/biology/Botanique/Fruticée/Fruticée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Frutic%C3%A9e</t>
+          <t>Fruticée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une fruticée (du latin frutex, « arbrisseau ») est une formation végétale où dominent des arbustes, des arbrisseaux et des sous-arbrisseaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fruticée (du latin frutex, « arbrisseau ») est une formation végétale où dominent des arbustes, des arbrisseaux et des sous-arbrisseaux.
 Cette formation peut correspondre à un stade intermédiaire transitoire dans la succession de végétation qui conduit jusqu'à la constitution d'une forêt. Elle peut dans des conditions naturelles plus ingrates représenter un stade stabilisé au-delà duquel la végétation ne connaîtra pas de développement plus important. Elle peut également caractériser un stade de régression à la suite de la dégradation d'un milieu forestier.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Frutic%C3%A9e</t>
+          <t>Fruticée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fruticées tempérées d'Europe
-fruticées à pruneliers et ronce commune,
+          <t>Fruticées tempérées d'Europe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>fruticées à pruneliers et ronce commune,
 fruticées à pruneliers et troènes,
 fruticées d'argousiers,
 fruticées d'épine vinette,
 fruticées à buis,
 landes à ajoncs,
 fruticées à Genévriers communs,
-fourrés de noisetiers, etc.
-Fruticées de climat méditerranéen
-maquis,
+fourrés de noisetiers, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fruticée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frutic%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples de fruticées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fruticées de climat méditerranéen</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>maquis,
 garrigue,
 chaparral,
 finbos, etc.</t>
